--- a/Racecard_20251001_7.xlsx
+++ b/Racecard_20251001_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="278">
   <si>
     <t>日期</t>
   </si>
@@ -289,6 +289,12 @@
     <t>前次調整後完成時間</t>
   </si>
   <si>
+    <t>上次最後 400</t>
+  </si>
+  <si>
+    <t>前次最後 400</t>
+  </si>
+  <si>
     <t>馬名2</t>
   </si>
   <si>
@@ -316,7 +322,13 @@
     <t>2次調整後平均秒速</t>
   </si>
   <si>
-    <t>2次較快完成秒速</t>
+    <t>近2次較快完成秒速</t>
+  </si>
+  <si>
+    <t>近2次較快完成最後 400</t>
+  </si>
+  <si>
+    <t>近2次較快完成最後 800</t>
   </si>
   <si>
     <t>ST</t>
@@ -476,7 +488,25 @@
     <t>2</t>
   </si>
   <si>
-    <t>-</t>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>+9</t>
+  </si>
+  <si>
+    <t>+10</t>
+  </si>
+  <si>
+    <t>+25</t>
   </si>
   <si>
     <t>0.55.67</t>
@@ -1195,13 +1225,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW9"/>
+  <dimension ref="A1:DA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:105">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1505,22 +1535,34 @@
       <c r="CW1" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:105">
       <c r="A2" s="2">
         <v>45931</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -1529,85 +1571,88 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L2">
         <v>135</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O2">
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R2">
         <v>114</v>
       </c>
       <c r="S2" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="T2">
+        <v>1195</v>
       </c>
       <c r="U2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="V2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="W2">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Z2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AC2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AE2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AF2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AG2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AH2">
         <v>2024794</v>
       </c>
       <c r="AI2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AJ2" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AK2">
         <v>1000</v>
       </c>
       <c r="AL2" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AM2">
         <v>1</v>
       </c>
       <c r="AN2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="AO2">
         <v>3.7</v>
@@ -1631,10 +1676,10 @@
         <v>33.38</v>
       </c>
       <c r="AV2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AZ2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="BA2">
         <v>13.23</v>
@@ -1655,28 +1700,28 @@
         <v>42.659</v>
       </c>
       <c r="BJ2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="BK2">
         <v>2024310</v>
       </c>
       <c r="BL2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BM2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="BN2">
         <v>1000</v>
       </c>
       <c r="BO2" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="BP2">
         <v>3</v>
       </c>
       <c r="BQ2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="BR2">
         <v>3.5</v>
@@ -1700,10 +1745,10 @@
         <v>33.8</v>
       </c>
       <c r="BY2" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="CC2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="CD2">
         <v>13.43</v>
@@ -1724,54 +1769,66 @@
         <v>43.098</v>
       </c>
       <c r="CM2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>229</v>
+        <v>260</v>
+      </c>
+      <c r="CN2">
+        <v>22.25</v>
+      </c>
+      <c r="CO2">
+        <v>22.31</v>
       </c>
       <c r="CP2" t="s">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="CQ2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="CR2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="CS2" t="s">
-        <v>236</v>
-      </c>
-      <c r="CT2">
+        <v>260</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>272</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>246</v>
+      </c>
+      <c r="CV2">
         <v>55.89</v>
       </c>
-      <c r="CU2">
+      <c r="CW2">
         <v>56.53</v>
       </c>
-      <c r="CV2">
+      <c r="CX2">
         <v>56.21</v>
       </c>
-      <c r="CW2">
+      <c r="CY2">
         <v>55.89</v>
       </c>
+      <c r="CZ2">
+        <v>22.25</v>
+      </c>
+      <c r="DA2">
+        <v>42.44</v>
+      </c>
     </row>
-    <row r="3" spans="1:101">
+    <row r="3" spans="1:105">
       <c r="A3" s="2">
         <v>45931</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -1780,85 +1837,88 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L3">
         <v>129</v>
       </c>
       <c r="M3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O3">
         <v>8</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="R3">
         <v>108</v>
       </c>
       <c r="S3" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="T3">
+        <v>1112</v>
       </c>
       <c r="U3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="V3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="W3">
         <v>6</v>
       </c>
       <c r="Y3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Z3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AC3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="AE3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AG3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AH3">
         <v>2024071</v>
       </c>
       <c r="AI3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="AJ3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AK3">
         <v>1000</v>
       </c>
       <c r="AL3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AM3">
         <v>6</v>
       </c>
       <c r="AN3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AO3">
         <v>7.2</v>
@@ -1882,10 +1942,10 @@
         <v>33.81</v>
       </c>
       <c r="AV3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="AZ3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="BA3">
         <v>13.32</v>
@@ -1906,45 +1966,54 @@
         <v>42.855</v>
       </c>
       <c r="BJ3" t="s">
-        <v>230</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>230</v>
+        <v>240</v>
+      </c>
+      <c r="CN3">
+        <v>22.15</v>
       </c>
       <c r="CP3" t="s">
-        <v>255</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>230</v>
-      </c>
-      <c r="CT3">
-        <v>56.18</v>
+        <v>117</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>240</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>240</v>
       </c>
       <c r="CV3">
         <v>56.18</v>
       </c>
-      <c r="CW3">
+      <c r="CX3">
         <v>56.18</v>
       </c>
+      <c r="CY3">
+        <v>56.18</v>
+      </c>
+      <c r="CZ3">
+        <v>22.15</v>
+      </c>
+      <c r="DA3">
+        <v>43.04</v>
+      </c>
     </row>
-    <row r="4" spans="1:101">
+    <row r="4" spans="1:105">
       <c r="A4" s="2">
         <v>45931</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -1953,82 +2022,85 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L4">
         <v>126</v>
       </c>
       <c r="M4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="R4">
         <v>105</v>
       </c>
       <c r="S4" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="T4">
+        <v>1105</v>
       </c>
       <c r="U4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W4">
         <v>6</v>
       </c>
       <c r="Y4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Z4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AB4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AC4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AE4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AF4" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="AG4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH4">
         <v>2025003</v>
       </c>
       <c r="AI4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="AJ4" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AK4">
         <v>1200</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AM4">
         <v>6</v>
       </c>
       <c r="AN4" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AO4">
         <v>48</v>
@@ -2052,10 +2124,10 @@
         <v>44.57</v>
       </c>
       <c r="AV4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="AZ4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="BA4">
         <v>24</v>
@@ -2076,45 +2148,54 @@
         <v>44.457</v>
       </c>
       <c r="BJ4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>114</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>231</v>
+        <v>241</v>
+      </c>
+      <c r="CN4">
+        <v>23</v>
       </c>
       <c r="CP4" t="s">
-        <v>256</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CT4">
-        <v>55.98</v>
+        <v>118</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>241</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>266</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>241</v>
       </c>
       <c r="CV4">
         <v>55.98</v>
       </c>
-      <c r="CW4">
+      <c r="CX4">
         <v>55.98</v>
       </c>
+      <c r="CY4">
+        <v>55.98</v>
+      </c>
+      <c r="CZ4">
+        <v>23</v>
+      </c>
+      <c r="DA4">
+        <v>44.33</v>
+      </c>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:105">
       <c r="A5" s="2">
         <v>45931</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -2123,85 +2204,88 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L5">
         <v>126</v>
       </c>
       <c r="M5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O5">
         <v>6</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="R5">
         <v>105</v>
       </c>
       <c r="S5" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="T5">
+        <v>1198</v>
       </c>
       <c r="U5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="V5" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="W5">
         <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Z5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AD5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="AE5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AF5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AG5" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH5">
         <v>2024794</v>
       </c>
       <c r="AI5" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AJ5" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AK5">
         <v>1000</v>
       </c>
       <c r="AL5" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AM5">
         <v>2</v>
       </c>
       <c r="AN5" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="AO5">
         <v>3.5</v>
@@ -2225,10 +2309,10 @@
         <v>33.38</v>
       </c>
       <c r="AV5" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AZ5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="BA5">
         <v>13.23</v>
@@ -2249,28 +2333,28 @@
         <v>42.32400000000001</v>
       </c>
       <c r="BJ5" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="BK5">
         <v>2024171</v>
       </c>
       <c r="BL5" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="BM5" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="BN5">
         <v>1000</v>
       </c>
       <c r="BO5" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="BP5">
         <v>2</v>
       </c>
       <c r="BQ5" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="BR5">
         <v>1.4</v>
@@ -2294,10 +2378,10 @@
         <v>34.17</v>
       </c>
       <c r="BY5" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="CC5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="CD5">
         <v>13.25</v>
@@ -2318,54 +2402,66 @@
         <v>42.974</v>
       </c>
       <c r="CM5" t="s">
-        <v>251</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>115</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>232</v>
+        <v>261</v>
+      </c>
+      <c r="CN5">
+        <v>22.13</v>
+      </c>
+      <c r="CO5">
+        <v>22.1</v>
       </c>
       <c r="CP5" t="s">
-        <v>257</v>
+        <v>119</v>
       </c>
       <c r="CQ5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="CR5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="CS5" t="s">
-        <v>226</v>
-      </c>
-      <c r="CT5">
+        <v>261</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>273</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>236</v>
+      </c>
+      <c r="CV5">
         <v>55.55</v>
       </c>
-      <c r="CU5">
+      <c r="CW5">
         <v>56.22</v>
       </c>
-      <c r="CV5">
+      <c r="CX5">
         <v>55.88</v>
       </c>
-      <c r="CW5">
+      <c r="CY5">
         <v>55.55</v>
       </c>
+      <c r="CZ5">
+        <v>22.13</v>
+      </c>
+      <c r="DA5">
+        <v>42.52</v>
+      </c>
     </row>
-    <row r="6" spans="1:101">
+    <row r="6" spans="1:105">
       <c r="A6" s="2">
         <v>45931</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -2374,85 +2470,88 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L6">
         <v>125</v>
       </c>
       <c r="M6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="R6">
         <v>104</v>
       </c>
       <c r="S6" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="T6">
+        <v>1161</v>
       </c>
       <c r="U6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="V6" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="W6">
         <v>5</v>
       </c>
       <c r="Y6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Z6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AB6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AC6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AD6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AE6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AF6" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG6" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH6">
         <v>2024265</v>
       </c>
       <c r="AI6" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AJ6" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AK6">
         <v>1000</v>
       </c>
       <c r="AL6" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AM6">
         <v>4</v>
       </c>
       <c r="AN6" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="AO6">
         <v>1.3</v>
@@ -2476,10 +2575,10 @@
         <v>33.84</v>
       </c>
       <c r="AV6" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="AZ6" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="BA6">
         <v>13.67</v>
@@ -2500,28 +2599,28 @@
         <v>42.389</v>
       </c>
       <c r="BJ6" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="BK6">
         <v>2024186</v>
       </c>
       <c r="BL6" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="BM6" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="BN6">
         <v>1000</v>
       </c>
       <c r="BO6" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="BP6">
         <v>1</v>
       </c>
       <c r="BQ6" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="BR6">
         <v>1.8</v>
@@ -2545,10 +2644,10 @@
         <v>33.64</v>
       </c>
       <c r="BY6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="CC6" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="CD6">
         <v>13.23</v>
@@ -2569,54 +2668,66 @@
         <v>42.843</v>
       </c>
       <c r="CM6" t="s">
-        <v>252</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>116</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>233</v>
+        <v>262</v>
+      </c>
+      <c r="CN6">
+        <v>21.94</v>
+      </c>
+      <c r="CO6">
+        <v>22.03</v>
       </c>
       <c r="CP6" t="s">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="CQ6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="CR6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="CS6" t="s">
-        <v>233</v>
-      </c>
-      <c r="CT6">
-        <v>56.06</v>
-      </c>
-      <c r="CU6">
-        <v>56.07</v>
+        <v>262</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>274</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>243</v>
       </c>
       <c r="CV6">
         <v>56.06</v>
       </c>
       <c r="CW6">
+        <v>56.07</v>
+      </c>
+      <c r="CX6">
         <v>56.06</v>
       </c>
+      <c r="CY6">
+        <v>56.06</v>
+      </c>
+      <c r="CZ6">
+        <v>21.94</v>
+      </c>
+      <c r="DA6">
+        <v>42.43</v>
+      </c>
     </row>
-    <row r="7" spans="1:101">
+    <row r="7" spans="1:105">
       <c r="A7" s="2">
         <v>45931</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -2625,85 +2736,88 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L7">
         <v>124</v>
       </c>
       <c r="M7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="R7">
         <v>103</v>
       </c>
       <c r="S7" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="T7">
+        <v>1071</v>
       </c>
       <c r="U7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="V7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="Y7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Z7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AC7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AD7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="AE7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AF7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AG7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AH7">
         <v>2024794</v>
       </c>
       <c r="AI7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AJ7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AK7">
         <v>1000</v>
       </c>
       <c r="AL7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AM7">
         <v>3</v>
       </c>
       <c r="AN7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="AO7">
         <v>7.1</v>
@@ -2727,10 +2841,10 @@
         <v>33.38</v>
       </c>
       <c r="AV7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AZ7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="BA7">
         <v>13.19</v>
@@ -2751,28 +2865,28 @@
         <v>42.59999999999999</v>
       </c>
       <c r="BJ7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="BK7">
         <v>2024448</v>
       </c>
       <c r="BL7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="BM7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="BN7">
         <v>1000</v>
       </c>
       <c r="BO7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="BP7">
         <v>1</v>
       </c>
       <c r="BQ7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="BR7">
         <v>3.9</v>
@@ -2796,10 +2910,10 @@
         <v>33.79</v>
       </c>
       <c r="BY7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="CC7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="CD7">
         <v>13.42</v>
@@ -2820,54 +2934,66 @@
         <v>42.758</v>
       </c>
       <c r="CM7" t="s">
-        <v>230</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>117</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>234</v>
+        <v>240</v>
+      </c>
+      <c r="CN7">
+        <v>22.38</v>
+      </c>
+      <c r="CO7">
+        <v>22.21</v>
       </c>
       <c r="CP7" t="s">
-        <v>259</v>
+        <v>121</v>
       </c>
       <c r="CQ7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="CR7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="CS7" t="s">
-        <v>231</v>
-      </c>
-      <c r="CT7">
+        <v>240</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>275</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>241</v>
+      </c>
+      <c r="CV7">
         <v>55.79</v>
       </c>
-      <c r="CU7">
+      <c r="CW7">
         <v>56.18</v>
       </c>
-      <c r="CV7">
+      <c r="CX7">
         <v>55.98</v>
       </c>
-      <c r="CW7">
+      <c r="CY7">
         <v>55.79</v>
       </c>
+      <c r="CZ7">
+        <v>22.38</v>
+      </c>
+      <c r="DA7">
+        <v>42.69</v>
+      </c>
     </row>
-    <row r="8" spans="1:101">
+    <row r="8" spans="1:105">
       <c r="A8" s="2">
         <v>45931</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -2876,85 +3002,88 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L8">
         <v>123</v>
       </c>
       <c r="M8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O8">
         <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="R8">
         <v>102</v>
       </c>
       <c r="S8" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="T8">
+        <v>1044</v>
       </c>
       <c r="U8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="V8" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="W8">
         <v>5</v>
       </c>
       <c r="Y8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Z8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="AB8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AC8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AD8" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AE8" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AF8" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="AG8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH8">
         <v>2024448</v>
       </c>
       <c r="AI8" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AJ8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AK8">
         <v>1000</v>
       </c>
       <c r="AL8" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AM8">
         <v>6</v>
       </c>
       <c r="AN8" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AO8">
         <v>4</v>
@@ -2978,10 +3107,10 @@
         <v>33.79</v>
       </c>
       <c r="AV8" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AZ8" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="BA8">
         <v>13.22</v>
@@ -3002,45 +3131,54 @@
         <v>43.511</v>
       </c>
       <c r="BJ8" t="s">
-        <v>235</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>118</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>235</v>
+        <v>245</v>
+      </c>
+      <c r="CN8">
+        <v>22.94</v>
       </c>
       <c r="CP8" t="s">
-        <v>260</v>
-      </c>
-      <c r="CS8" t="s">
-        <v>235</v>
-      </c>
-      <c r="CT8">
-        <v>56.73</v>
+        <v>122</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>245</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>270</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>245</v>
       </c>
       <c r="CV8">
         <v>56.73</v>
       </c>
-      <c r="CW8">
+      <c r="CX8">
         <v>56.73</v>
       </c>
+      <c r="CY8">
+        <v>56.73</v>
+      </c>
+      <c r="CZ8">
+        <v>22.94</v>
+      </c>
+      <c r="DA8">
+        <v>43.67</v>
+      </c>
     </row>
-    <row r="9" spans="1:101">
+    <row r="9" spans="1:105">
       <c r="A9" s="2">
         <v>45931</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -3049,85 +3187,88 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L9">
         <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O9">
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="R9">
         <v>87</v>
       </c>
       <c r="S9" t="s">
-        <v>147</v>
+        <v>151</v>
+      </c>
+      <c r="T9">
+        <v>1246</v>
       </c>
       <c r="U9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="V9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="Y9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Z9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AC9" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AD9" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AE9" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AF9" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AG9" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH9">
         <v>2024323</v>
       </c>
       <c r="AI9" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="AJ9" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AK9">
         <v>1000</v>
       </c>
       <c r="AL9" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AM9">
         <v>1</v>
       </c>
       <c r="AN9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AO9">
         <v>13</v>
@@ -3151,10 +3292,10 @@
         <v>34.05</v>
       </c>
       <c r="AV9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AZ9" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="BA9">
         <v>13.5</v>
@@ -3175,28 +3316,28 @@
         <v>42.71</v>
       </c>
       <c r="BJ9" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="BK9">
         <v>2024265</v>
       </c>
       <c r="BL9" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="BM9" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="BN9">
         <v>1000</v>
       </c>
       <c r="BO9" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="BP9">
         <v>8</v>
       </c>
       <c r="BQ9" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="BR9">
         <v>59</v>
@@ -3220,10 +3361,10 @@
         <v>33.84</v>
       </c>
       <c r="BY9" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="CC9" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="CD9">
         <v>13.55</v>
@@ -3244,37 +3385,49 @@
         <v>43.61</v>
       </c>
       <c r="CM9" t="s">
-        <v>253</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>119</v>
-      </c>
-      <c r="CO9" t="s">
-        <v>236</v>
+        <v>263</v>
+      </c>
+      <c r="CN9">
+        <v>22.27</v>
+      </c>
+      <c r="CO9">
+        <v>23.03</v>
       </c>
       <c r="CP9" t="s">
-        <v>261</v>
+        <v>123</v>
       </c>
       <c r="CQ9" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="CR9" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="CS9" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT9">
+        <v>263</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>276</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>277</v>
+      </c>
+      <c r="CV9">
         <v>56.21</v>
       </c>
-      <c r="CU9">
+      <c r="CW9">
         <v>57.16</v>
       </c>
-      <c r="CV9">
+      <c r="CX9">
         <v>56.69</v>
       </c>
-      <c r="CW9">
+      <c r="CY9">
         <v>56.21</v>
+      </c>
+      <c r="CZ9">
+        <v>22.27</v>
+      </c>
+      <c r="DA9">
+        <v>42.82</v>
       </c>
     </row>
   </sheetData>
